--- a/Data/DataView_US_REG_COMPLETE.xlsx
+++ b/Data/DataView_US_REG_COMPLETE.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4AF9C2-37B3-44BC-BC16-AC7F34C31432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -257,44 +256,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF9CDCFE"/>
+      <family val="3"/>
       <sz val="11"/>
-      <color rgb="FF9CDCFE"/>
       <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -306,7 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,14 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" customWidth="1"/>
@@ -1112,7 +1111,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" ht="14.5" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>10645094</v>
       </c>
@@ -1134,7 +1133,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>10645094</v>
       </c>
@@ -1156,7 +1155,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>10645094</v>
       </c>
@@ -1178,7 +1177,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>10279237</v>
       </c>
@@ -1200,7 +1199,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>10279237</v>
       </c>
@@ -1222,7 +1221,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>10279237</v>
       </c>
@@ -1244,7 +1243,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>10279237</v>
       </c>
@@ -1266,7 +1265,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>10279237</v>
       </c>
@@ -1288,7 +1287,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>10279237</v>
       </c>
@@ -1310,7 +1309,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>10279237</v>
       </c>
@@ -1332,7 +1331,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>10279237</v>
       </c>
@@ -1354,7 +1353,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>10279237</v>
       </c>
@@ -1376,7 +1375,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>10279237</v>
       </c>
@@ -1398,7 +1397,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>10279237</v>
       </c>
@@ -1420,7 +1419,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>10279237</v>
       </c>
@@ -1442,7 +1441,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>10279237</v>
       </c>
@@ -1464,7 +1463,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>10279237</v>
       </c>
@@ -1486,7 +1485,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>10279237</v>
       </c>
@@ -1508,7 +1507,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>10279237</v>
       </c>
@@ -1530,7 +1529,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>10279237</v>
       </c>
@@ -1552,7 +1551,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>10279237</v>
       </c>
@@ -1574,7 +1573,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>10279237</v>
       </c>
@@ -1596,7 +1595,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>10279237</v>
       </c>
@@ -1618,7 +1617,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>10279237</v>
       </c>
@@ -1640,7 +1639,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>10279237</v>
       </c>
@@ -1662,7 +1661,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>10279237</v>
       </c>
@@ -1684,7 +1683,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>10279237</v>
       </c>
@@ -1706,7 +1705,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>10279237</v>
       </c>
@@ -1728,7 +1727,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>10279237</v>
       </c>
@@ -1750,7 +1749,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>10279237</v>
       </c>
@@ -1772,7 +1771,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>10279237</v>
       </c>
@@ -1794,7 +1793,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>10279237</v>
       </c>
@@ -1816,7 +1815,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>10279237</v>
       </c>
@@ -1838,7 +1837,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>10279237</v>
       </c>
@@ -1860,7 +1859,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>10279237</v>
       </c>
@@ -1882,7 +1881,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>10279237</v>
       </c>
@@ -1904,7 +1903,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>10279237</v>
       </c>
@@ -1926,7 +1925,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>10279237</v>
       </c>
@@ -1948,7 +1947,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>10279237</v>
       </c>
@@ -1970,7 +1969,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>10279237</v>
       </c>
@@ -1992,7 +1991,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>10279237</v>
       </c>
@@ -2014,7 +2013,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>10279237</v>
       </c>
@@ -2036,7 +2035,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>10279237</v>
       </c>
@@ -2058,7 +2057,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>10222022</v>
       </c>
@@ -2080,7 +2079,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>10222022</v>
       </c>
@@ -2102,7 +2101,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>10222022</v>
       </c>
@@ -2124,7 +2123,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>10222022</v>
       </c>
@@ -2146,7 +2145,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>10222022</v>
       </c>
@@ -2168,7 +2167,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>10222022</v>
       </c>
@@ -2190,7 +2189,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>10222022</v>
       </c>
@@ -2212,7 +2211,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>10222022</v>
       </c>
@@ -2234,7 +2233,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>10222022</v>
       </c>
@@ -2256,7 +2255,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>10222022</v>
       </c>
@@ -2278,7 +2277,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>10222022</v>
       </c>
@@ -2300,7 +2299,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>10222022</v>
       </c>
@@ -2322,7 +2321,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>10222022</v>
       </c>
@@ -2344,7 +2343,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>10222022</v>
       </c>
@@ -2366,7 +2365,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>10222022</v>
       </c>
@@ -2388,7 +2387,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>10222022</v>
       </c>
@@ -2410,7 +2409,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10222022</v>
       </c>
@@ -2432,7 +2431,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>10222022</v>
       </c>
@@ -2454,7 +2453,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>10222022</v>
       </c>
@@ -2476,7 +2475,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>10222022</v>
       </c>
@@ -2498,7 +2497,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>10222022</v>
       </c>
@@ -2520,7 +2519,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>10222022</v>
       </c>
@@ -2542,7 +2541,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>10222022</v>
       </c>
@@ -2564,7 +2563,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>10222022</v>
       </c>
@@ -2586,7 +2585,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>10222022</v>
       </c>
@@ -2608,7 +2607,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>10222022</v>
       </c>
@@ -2630,7 +2629,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>10222022</v>
       </c>
@@ -2652,7 +2651,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>10222022</v>
       </c>
@@ -2674,7 +2673,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>10222022</v>
       </c>
@@ -2696,7 +2695,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>10222022</v>
       </c>
@@ -2718,7 +2717,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>10222022</v>
       </c>
@@ -2740,7 +2739,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>10222022</v>
       </c>
@@ -2762,7 +2761,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>10222022</v>
       </c>
@@ -2784,7 +2783,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>10222022</v>
       </c>
@@ -2806,7 +2805,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>10222022</v>
       </c>
@@ -2828,7 +2827,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>10222022</v>
       </c>
@@ -2850,7 +2849,7 @@
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>10222022</v>
       </c>
@@ -2872,7 +2871,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>10222022</v>
       </c>
@@ -2894,7 +2893,7 @@
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>10222022</v>
       </c>
@@ -2916,7 +2915,7 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>10222022</v>
       </c>
@@ -2938,7 +2937,7 @@
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>10222022</v>
       </c>
@@ -2960,7 +2959,7 @@
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>10181602</v>
       </c>
@@ -2982,7 +2981,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>10181602</v>
       </c>
@@ -3004,7 +3003,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>10181602</v>
       </c>
@@ -3026,7 +3025,7 @@
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>10181602</v>
       </c>
@@ -3048,7 +3047,7 @@
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>10181602</v>
       </c>
@@ -3070,7 +3069,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>10181602</v>
       </c>
@@ -3092,7 +3091,7 @@
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>10181602</v>
       </c>
@@ -3114,7 +3113,7 @@
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>10181602</v>
       </c>
@@ -3136,7 +3135,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>10181602</v>
       </c>
@@ -3158,7 +3157,7 @@
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>10181602</v>
       </c>
@@ -3180,7 +3179,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>10181602</v>
       </c>
@@ -3202,7 +3201,7 @@
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>10181602</v>
       </c>
@@ -3224,7 +3223,7 @@
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>10181602</v>
       </c>
@@ -3246,7 +3245,7 @@
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>10181602</v>
       </c>
@@ -3268,7 +3267,7 @@
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>10181602</v>
       </c>
@@ -3290,7 +3289,7 @@
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>10181602</v>
       </c>
@@ -3312,7 +3311,7 @@
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>10181602</v>
       </c>
@@ -3334,7 +3333,7 @@
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>10181602</v>
       </c>
@@ -3356,7 +3355,7 @@
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>10181602</v>
       </c>
@@ -3378,7 +3377,7 @@
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>10181602</v>
       </c>
@@ -3400,7 +3399,7 @@
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>10181602</v>
       </c>
@@ -3422,7 +3421,7 @@
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>10181602</v>
       </c>
@@ -3444,7 +3443,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>10181602</v>
       </c>
@@ -3466,7 +3465,7 @@
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>10181602</v>
       </c>
@@ -3488,7 +3487,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>10181602</v>
       </c>
@@ -3510,7 +3509,7 @@
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>10181602</v>
       </c>
@@ -3532,7 +3531,7 @@
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>10181602</v>
       </c>
@@ -3554,7 +3553,7 @@
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10254410</v>
       </c>
@@ -3576,7 +3575,7 @@
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>10254410</v>
       </c>
@@ -3598,7 +3597,7 @@
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>10254410</v>
       </c>
@@ -3620,7 +3619,7 @@
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>10254410</v>
       </c>
@@ -3642,7 +3641,7 @@
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>10254410</v>
       </c>
@@ -3664,7 +3663,7 @@
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>10254410</v>
       </c>
@@ -3686,7 +3685,7 @@
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>10254410</v>
       </c>
@@ -3708,7 +3707,7 @@
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>10254410</v>
       </c>
@@ -3730,7 +3729,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>10254410</v>
       </c>
@@ -3752,7 +3751,7 @@
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>10254410</v>
       </c>
@@ -3774,7 +3773,7 @@
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>10254410</v>
       </c>
@@ -3796,7 +3795,7 @@
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>10254410</v>
       </c>
@@ -3818,7 +3817,7 @@
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>78</v>
       </c>
@@ -3840,7 +3839,7 @@
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -3862,7 +3861,7 @@
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>78</v>
       </c>
@@ -3884,7 +3883,7 @@
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>78</v>
       </c>
@@ -3906,7 +3905,7 @@
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>78</v>
       </c>
@@ -3928,7 +3927,7 @@
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>78</v>
       </c>
@@ -3950,7 +3949,7 @@
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>78</v>
       </c>
@@ -3972,7 +3971,7 @@
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>78</v>
       </c>
@@ -3994,7 +3993,7 @@
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>78</v>
       </c>
@@ -4016,7 +4015,7 @@
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>78</v>
       </c>
@@ -4038,7 +4037,7 @@
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>78</v>
       </c>
@@ -4060,7 +4059,7 @@
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>78</v>
       </c>
@@ -4082,7 +4081,7 @@
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>78</v>
       </c>
@@ -4104,7 +4103,7 @@
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>78</v>
       </c>
@@ -4126,7 +4125,7 @@
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>78</v>
       </c>
@@ -4148,7 +4147,7 @@
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>78</v>
       </c>
@@ -4170,7 +4169,7 @@
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>78</v>
       </c>
@@ -4192,7 +4191,7 @@
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>78</v>
       </c>
@@ -4214,7 +4213,7 @@
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>78</v>
       </c>
@@ -4236,7 +4235,7 @@
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>78</v>
       </c>
@@ -4258,7 +4257,7 @@
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>78</v>
       </c>
@@ -4280,7 +4279,7 @@
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>78</v>
       </c>
@@ -4302,7 +4301,7 @@
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>78</v>
       </c>
@@ -4324,7 +4323,7 @@
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>78</v>
       </c>
@@ -4346,7 +4345,7 @@
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>78</v>
       </c>
@@ -4368,7 +4367,7 @@
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>78</v>
       </c>
@@ -4390,7 +4389,7 @@
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>78</v>
       </c>
@@ -4412,7 +4411,7 @@
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>78</v>
       </c>
@@ -4434,7 +4433,7 @@
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>78</v>
       </c>
@@ -4456,7 +4455,7 @@
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>78</v>
       </c>
@@ -4478,7 +4477,7 @@
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>78</v>
       </c>
@@ -4500,7 +4499,7 @@
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>78</v>
       </c>
@@ -4522,7 +4521,7 @@
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>78</v>
       </c>
@@ -4544,7 +4543,7 @@
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>78</v>
       </c>
@@ -4566,7 +4565,7 @@
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>78</v>
       </c>
@@ -4588,7 +4587,7 @@
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>78</v>
       </c>
@@ -4610,7 +4609,7 @@
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>78</v>
       </c>
@@ -4632,7 +4631,7 @@
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>78</v>
       </c>
@@ -4654,7 +4653,7 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>78</v>
       </c>
@@ -4676,7 +4675,7 @@
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>78</v>
       </c>
@@ -4698,7 +4697,7 @@
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>78</v>
       </c>
@@ -4720,7 +4719,7 @@
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>10525713</v>
       </c>
@@ -4742,7 +4741,7 @@
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>10525713</v>
       </c>
@@ -4764,7 +4763,7 @@
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>10525713</v>
       </c>
@@ -4786,7 +4785,7 @@
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>10525713</v>
       </c>
@@ -4808,7 +4807,7 @@
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>10525713</v>
       </c>
@@ -4830,7 +4829,7 @@
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>10525713</v>
       </c>
@@ -4852,7 +4851,7 @@
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>10525713</v>
       </c>
@@ -4874,7 +4873,7 @@
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>10525713</v>
       </c>
@@ -4896,7 +4895,7 @@
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>10525713</v>
       </c>
@@ -4918,7 +4917,7 @@
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>10525713</v>
       </c>
@@ -4940,7 +4939,7 @@
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>10525713</v>
       </c>
@@ -4962,7 +4961,7 @@
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>10525713</v>
       </c>
@@ -4984,7 +4983,7 @@
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>10525713</v>
       </c>
@@ -5006,7 +5005,7 @@
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>10525713</v>
       </c>
@@ -5028,7 +5027,7 @@
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>10525713</v>
       </c>
@@ -5050,7 +5049,7 @@
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>10525713</v>
       </c>
@@ -5072,7 +5071,7 @@
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>10525713</v>
       </c>
@@ -5094,7 +5093,7 @@
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>10525713</v>
       </c>
@@ -5116,7 +5115,7 @@
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>10525713</v>
       </c>
@@ -5138,7 +5137,7 @@
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>10525713</v>
       </c>
@@ -5160,7 +5159,7 @@
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>10525713</v>
       </c>
@@ -5182,7 +5181,7 @@
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>10525713</v>
       </c>
@@ -5204,7 +5203,7 @@
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>10525713</v>
       </c>
@@ -5226,7 +5225,7 @@
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>10525713</v>
       </c>
@@ -5248,7 +5247,7 @@
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>10525713</v>
       </c>
@@ -5270,7 +5269,7 @@
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>10525713</v>
       </c>
@@ -5292,7 +5291,7 @@
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>10525713</v>
       </c>
@@ -5314,7 +5313,7 @@
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>10525713</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>10525713</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>10525713</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>10525713</v>
       </c>
@@ -5394,7 +5393,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>10525713</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>10525713</v>
       </c>
@@ -5434,7 +5433,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>10525713</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>10525713</v>
       </c>
@@ -5474,7 +5473,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>10525713</v>
       </c>
@@ -5494,7 +5493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>10525713</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>10525713</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>10525713</v>
       </c>
@@ -5554,7 +5553,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>10525713</v>
       </c>
@@ -5574,7 +5573,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>10525713</v>
       </c>
@@ -5594,55 +5593,55 @@
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" ht="14.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" ht="14.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" ht="14.5" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B51" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B52" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B53" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B54" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B55" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B56" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B57" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B58" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B59" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B60" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B61" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B62" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B63" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B64" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B65" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B66" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B92" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B93" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B94" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B95" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B96" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B97" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B98" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B99" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B100" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B101" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B102" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B103" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B104" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B105" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B106" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B143" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B144" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B145" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B187" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B51" r:id="rId2"/>
+    <hyperlink ref="B52" r:id="rId3"/>
+    <hyperlink ref="B53" r:id="rId4"/>
+    <hyperlink ref="B54" r:id="rId5"/>
+    <hyperlink ref="B55" r:id="rId6"/>
+    <hyperlink ref="B56" r:id="rId7"/>
+    <hyperlink ref="B57" r:id="rId8"/>
+    <hyperlink ref="B58" r:id="rId9"/>
+    <hyperlink ref="B59" r:id="rId10"/>
+    <hyperlink ref="B60" r:id="rId11"/>
+    <hyperlink ref="B61" r:id="rId12"/>
+    <hyperlink ref="B62" r:id="rId13"/>
+    <hyperlink ref="B63" r:id="rId14"/>
+    <hyperlink ref="B64" r:id="rId15"/>
+    <hyperlink ref="B65" r:id="rId16"/>
+    <hyperlink ref="B66" r:id="rId17"/>
+    <hyperlink ref="B92" r:id="rId18"/>
+    <hyperlink ref="B93" r:id="rId19"/>
+    <hyperlink ref="B94" r:id="rId20"/>
+    <hyperlink ref="B95" r:id="rId21"/>
+    <hyperlink ref="B96" r:id="rId22"/>
+    <hyperlink ref="B97" r:id="rId23"/>
+    <hyperlink ref="B98" r:id="rId24"/>
+    <hyperlink ref="B99" r:id="rId25"/>
+    <hyperlink ref="B100" r:id="rId26"/>
+    <hyperlink ref="B101" r:id="rId27"/>
+    <hyperlink ref="B102" r:id="rId28"/>
+    <hyperlink ref="B103" r:id="rId29"/>
+    <hyperlink ref="B104" r:id="rId30"/>
+    <hyperlink ref="B105" r:id="rId31"/>
+    <hyperlink ref="B106" r:id="rId32"/>
+    <hyperlink ref="B143" r:id="rId33"/>
+    <hyperlink ref="B144" r:id="rId34"/>
+    <hyperlink ref="B145" r:id="rId35"/>
+    <hyperlink ref="B187" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>